--- a/templates/income-template.xlsx
+++ b/templates/income-template.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="תבנית הכנסות" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="הסבר" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -62,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -70,6 +71,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +448,15 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,10 +497,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>תנאי תשלום</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>תאריך לתשלום</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>פטור ממע״מ</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>סטטוס</t>
         </is>
@@ -512,7 +527,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>ייעוץ עסקי - חשבונית עסקה</t>
+          <t>ייעוץ עסקי</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -526,13 +541,23 @@
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>לקוח א</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 30</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>ממתין</t>
         </is>
@@ -567,13 +592,19 @@
           <t>1001</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>לקוח א</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>שולם</t>
         </is>
@@ -604,15 +635,25 @@
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ב</t>
+        </is>
+      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>כן</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>שולם</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
         </is>
       </c>
     </row>
@@ -641,13 +682,23 @@
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ג</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>שוטף + 60</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>ממתין</t>
         </is>
@@ -664,7 +715,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>פרויקט עיצוב - שלב א</t>
+          <t>פרויקט עיצוב - תשלום</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -682,15 +733,211 @@
           <t>1004</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ג</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>לא</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>שולם</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>ייעוץ שנתי</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>חשבונית מס</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>לקוח ד</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>ממתין</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>שדה</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>הסבר</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ערכים אפשריים</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>סוג מסמך</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>סוג המסמך החשבונאי</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>חשבונית עסקה / חשבונית מס / חשבונית מס קבלה / קבלה / הודעת זיכוי</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>מספר חשבונית עסקה מקושרת</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>מספר חשבונית העסקה שמסמך זה סוגר (רלוונטי רק לחשבוניות מס)</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>מספר מסמך קיים או ריק</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>תנאי תשלום</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>תנאי התשלום המוסכמים</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>מיידי / שוטף / שוטף + 30 / שוטף + 45 / שוטף + 60 / שוטף + 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>תאריך לתשלום</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>תאריך ספציפי לתשלום (במקום תנאי תשלום)</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>YYYY-MM-DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>פטור ממע״מ</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>האם העסקה פטורה ממע״מ</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>כן / לא</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>סטטוס</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>סטטוס התשלום</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>ממתין / שולם / שולם חלקית</t>
         </is>
       </c>
     </row>
